--- a/INTLINE/data/193/ABS/87520075.xlsx
+++ b/INTLINE/data/193/ABS/87520075.xlsx
@@ -12,116 +12,116 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A83791102J">Data1!$R$1:$R$10,Data1!$R$107:$R$255</definedName>
-    <definedName name="A83791102J_Data">Data1!$R$107:$R$255</definedName>
-    <definedName name="A83791102J_Latest">Data1!$R$255</definedName>
-    <definedName name="A83791246V">Data1!$N$1:$N$10,Data1!$N$91:$N$255</definedName>
-    <definedName name="A83791246V_Data">Data1!$N$91:$N$255</definedName>
-    <definedName name="A83791246V_Latest">Data1!$N$255</definedName>
-    <definedName name="A83791462L">Data1!$P$1:$P$10,Data1!$P$107:$P$255</definedName>
-    <definedName name="A83791462L_Data">Data1!$P$107:$P$255</definedName>
-    <definedName name="A83791462L_Latest">Data1!$P$255</definedName>
-    <definedName name="A83791534L">Data1!$F$1:$F$10,Data1!$F$107:$F$255</definedName>
-    <definedName name="A83791534L_Data">Data1!$F$107:$F$255</definedName>
-    <definedName name="A83791534L_Latest">Data1!$F$255</definedName>
-    <definedName name="A83791678X">Data1!$B$1:$B$10,Data1!$B$91:$B$255</definedName>
-    <definedName name="A83791678X_Data">Data1!$B$91:$B$255</definedName>
-    <definedName name="A83791678X_Latest">Data1!$B$255</definedName>
-    <definedName name="A83791894T">Data1!$D$1:$D$10,Data1!$D$107:$D$255</definedName>
-    <definedName name="A83791894T_Data">Data1!$D$107:$D$255</definedName>
-    <definedName name="A83791894T_Latest">Data1!$D$255</definedName>
-    <definedName name="A83791966T">Data1!$AD$1:$AD$10,Data1!$AD$107:$AD$255</definedName>
-    <definedName name="A83791966T_Data">Data1!$AD$107:$AD$255</definedName>
-    <definedName name="A83791966T_Latest">Data1!$AD$255</definedName>
-    <definedName name="A83792110A">Data1!$Z$1:$Z$10,Data1!$Z$91:$Z$255</definedName>
-    <definedName name="A83792110A_Data">Data1!$Z$91:$Z$255</definedName>
-    <definedName name="A83792110A_Latest">Data1!$Z$255</definedName>
-    <definedName name="A83792326L">Data1!$AB$1:$AB$10,Data1!$AB$107:$AB$255</definedName>
-    <definedName name="A83792326L_Data">Data1!$AB$107:$AB$255</definedName>
-    <definedName name="A83792326L_Latest">Data1!$AB$255</definedName>
-    <definedName name="A83793694K">Data1!$S$1:$S$10,Data1!$S$91:$S$255</definedName>
-    <definedName name="A83793694K_Data">Data1!$S$91:$S$255</definedName>
-    <definedName name="A83793694K_Latest">Data1!$S$255</definedName>
-    <definedName name="A83793838K">Data1!$O$1:$O$10,Data1!$O$91:$O$255</definedName>
-    <definedName name="A83793838K_Data">Data1!$O$91:$O$255</definedName>
-    <definedName name="A83793838K_Latest">Data1!$O$255</definedName>
-    <definedName name="A83794054F">Data1!$Q$1:$Q$10,Data1!$Q$91:$Q$255</definedName>
-    <definedName name="A83794054F_Data">Data1!$Q$91:$Q$255</definedName>
-    <definedName name="A83794054F_Latest">Data1!$Q$255</definedName>
-    <definedName name="A83794126F">Data1!$G$1:$G$10,Data1!$G$11:$G$255</definedName>
-    <definedName name="A83794126F_Data">Data1!$G$11:$G$255</definedName>
-    <definedName name="A83794126F_Latest">Data1!$G$255</definedName>
-    <definedName name="A83794270X">Data1!$C$1:$C$10,Data1!$C$91:$C$255</definedName>
-    <definedName name="A83794270X_Data">Data1!$C$91:$C$255</definedName>
-    <definedName name="A83794270X_Latest">Data1!$C$255</definedName>
-    <definedName name="A83794486K">Data1!$E$1:$E$10,Data1!$E$91:$E$255</definedName>
-    <definedName name="A83794486K_Data">Data1!$E$91:$E$255</definedName>
-    <definedName name="A83794486K_Latest">Data1!$E$255</definedName>
-    <definedName name="A83794558K">Data1!$AE$1:$AE$10,Data1!$AE$91:$AE$255</definedName>
-    <definedName name="A83794558K_Data">Data1!$AE$91:$AE$255</definedName>
-    <definedName name="A83794558K_Latest">Data1!$AE$255</definedName>
-    <definedName name="A83794702T">Data1!$AA$1:$AA$10,Data1!$AA$91:$AA$255</definedName>
-    <definedName name="A83794702T_Data">Data1!$AA$91:$AA$255</definedName>
-    <definedName name="A83794702T_Latest">Data1!$AA$255</definedName>
-    <definedName name="A83794918C">Data1!$AC$1:$AC$10,Data1!$AC$91:$AC$255</definedName>
-    <definedName name="A83794918C_Data">Data1!$AC$91:$AC$255</definedName>
-    <definedName name="A83794918C_Latest">Data1!$AC$255</definedName>
-    <definedName name="A83794990W">Data1!$T$1:$T$10,Data1!$T$107:$T$255</definedName>
-    <definedName name="A83794990W_Data">Data1!$T$107:$T$255</definedName>
-    <definedName name="A83794990W_Latest">Data1!$T$255</definedName>
-    <definedName name="A83795422T">Data1!$H$1:$H$10,Data1!$H$107:$H$255</definedName>
-    <definedName name="A83795422T_Data">Data1!$H$107:$H$255</definedName>
-    <definedName name="A83795422T_Latest">Data1!$H$255</definedName>
-    <definedName name="A83795854W">Data1!$AF$1:$AF$10,Data1!$AF$107:$AF$255</definedName>
-    <definedName name="A83795854W_Data">Data1!$AF$107:$AF$255</definedName>
-    <definedName name="A83795854W_Latest">Data1!$AF$255</definedName>
-    <definedName name="A83797582R">Data1!$U$1:$U$10,Data1!$U$63:$U$255</definedName>
-    <definedName name="A83797582R_Data">Data1!$U$63:$U$255</definedName>
-    <definedName name="A83797582R_Latest">Data1!$U$255</definedName>
-    <definedName name="A83798014K">Data1!$I$1:$I$10,Data1!$I$63:$I$255</definedName>
-    <definedName name="A83798014K_Data">Data1!$I$63:$I$255</definedName>
-    <definedName name="A83798014K_Latest">Data1!$I$255</definedName>
-    <definedName name="A83798446R">Data1!$AG$1:$AG$10,Data1!$AG$63:$AG$255</definedName>
-    <definedName name="A83798446R_Data">Data1!$AG$63:$AG$255</definedName>
-    <definedName name="A83798446R_Latest">Data1!$AG$255</definedName>
-    <definedName name="A83798950A">Data1!$X$1:$X$10,Data1!$X$107:$X$255</definedName>
-    <definedName name="A83798950A_Data">Data1!$X$107:$X$255</definedName>
-    <definedName name="A83798950A_Latest">Data1!$X$255</definedName>
-    <definedName name="A83799094R">Data1!$V$1:$V$10,Data1!$V$31:$V$255</definedName>
-    <definedName name="A83799094R_Data">Data1!$V$31:$V$255</definedName>
-    <definedName name="A83799094R_Latest">Data1!$V$255</definedName>
-    <definedName name="A83799382J">Data1!$L$1:$L$10,Data1!$L$91:$L$255</definedName>
-    <definedName name="A83799382J_Data">Data1!$L$91:$L$255</definedName>
-    <definedName name="A83799382J_Latest">Data1!$L$255</definedName>
-    <definedName name="A83799526J">Data1!$J$1:$J$10,Data1!$J$11:$J$255</definedName>
-    <definedName name="A83799526J_Data">Data1!$J$11:$J$255</definedName>
-    <definedName name="A83799526J_Latest">Data1!$J$255</definedName>
-    <definedName name="A83799814A">Data1!$AJ$1:$AJ$10,Data1!$AJ$107:$AJ$255</definedName>
-    <definedName name="A83799814A_Data">Data1!$AJ$107:$AJ$255</definedName>
-    <definedName name="A83799814A_Latest">Data1!$AJ$255</definedName>
-    <definedName name="A83799958L">Data1!$AH$1:$AH$10,Data1!$AH$31:$AH$255</definedName>
-    <definedName name="A83799958L_Data">Data1!$AH$31:$AH$255</definedName>
-    <definedName name="A83799958L_Latest">Data1!$AH$255</definedName>
-    <definedName name="A83801542J">Data1!$Y$1:$Y$10,Data1!$Y$91:$Y$255</definedName>
-    <definedName name="A83801542J_Data">Data1!$Y$91:$Y$255</definedName>
-    <definedName name="A83801542J_Latest">Data1!$Y$255</definedName>
-    <definedName name="A83801686V">Data1!$W$1:$W$10,Data1!$W$31:$W$255</definedName>
-    <definedName name="A83801686V_Data">Data1!$W$31:$W$255</definedName>
-    <definedName name="A83801686V_Latest">Data1!$W$255</definedName>
-    <definedName name="A83801974L">Data1!$M$1:$M$10,Data1!$M$11:$M$255</definedName>
-    <definedName name="A83801974L_Data">Data1!$M$11:$M$255</definedName>
-    <definedName name="A83801974L_Latest">Data1!$M$255</definedName>
-    <definedName name="A83802118R">Data1!$K$1:$K$10,Data1!$K$11:$K$255</definedName>
-    <definedName name="A83802118R_Data">Data1!$K$11:$K$255</definedName>
-    <definedName name="A83802118R_Latest">Data1!$K$255</definedName>
-    <definedName name="A83802406J">Data1!$AK$1:$AK$10,Data1!$AK$91:$AK$255</definedName>
-    <definedName name="A83802406J_Data">Data1!$AK$91:$AK$255</definedName>
-    <definedName name="A83802406J_Latest">Data1!$AK$255</definedName>
-    <definedName name="A83802550A">Data1!$AI$1:$AI$10,Data1!$AI$31:$AI$255</definedName>
-    <definedName name="A83802550A_Data">Data1!$AI$31:$AI$255</definedName>
-    <definedName name="A83802550A_Latest">Data1!$AI$255</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$255</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$255</definedName>
+    <definedName name="A83791102J">Data1!$R$1:$R$10,Data1!$R$107:$R$256</definedName>
+    <definedName name="A83791102J_Data">Data1!$R$107:$R$256</definedName>
+    <definedName name="A83791102J_Latest">Data1!$R$256</definedName>
+    <definedName name="A83791246V">Data1!$N$1:$N$10,Data1!$N$91:$N$256</definedName>
+    <definedName name="A83791246V_Data">Data1!$N$91:$N$256</definedName>
+    <definedName name="A83791246V_Latest">Data1!$N$256</definedName>
+    <definedName name="A83791462L">Data1!$P$1:$P$10,Data1!$P$107:$P$256</definedName>
+    <definedName name="A83791462L_Data">Data1!$P$107:$P$256</definedName>
+    <definedName name="A83791462L_Latest">Data1!$P$256</definedName>
+    <definedName name="A83791534L">Data1!$F$1:$F$10,Data1!$F$107:$F$256</definedName>
+    <definedName name="A83791534L_Data">Data1!$F$107:$F$256</definedName>
+    <definedName name="A83791534L_Latest">Data1!$F$256</definedName>
+    <definedName name="A83791678X">Data1!$B$1:$B$10,Data1!$B$91:$B$256</definedName>
+    <definedName name="A83791678X_Data">Data1!$B$91:$B$256</definedName>
+    <definedName name="A83791678X_Latest">Data1!$B$256</definedName>
+    <definedName name="A83791894T">Data1!$D$1:$D$10,Data1!$D$107:$D$256</definedName>
+    <definedName name="A83791894T_Data">Data1!$D$107:$D$256</definedName>
+    <definedName name="A83791894T_Latest">Data1!$D$256</definedName>
+    <definedName name="A83791966T">Data1!$AD$1:$AD$10,Data1!$AD$107:$AD$256</definedName>
+    <definedName name="A83791966T_Data">Data1!$AD$107:$AD$256</definedName>
+    <definedName name="A83791966T_Latest">Data1!$AD$256</definedName>
+    <definedName name="A83792110A">Data1!$Z$1:$Z$10,Data1!$Z$91:$Z$256</definedName>
+    <definedName name="A83792110A_Data">Data1!$Z$91:$Z$256</definedName>
+    <definedName name="A83792110A_Latest">Data1!$Z$256</definedName>
+    <definedName name="A83792326L">Data1!$AB$1:$AB$10,Data1!$AB$107:$AB$256</definedName>
+    <definedName name="A83792326L_Data">Data1!$AB$107:$AB$256</definedName>
+    <definedName name="A83792326L_Latest">Data1!$AB$256</definedName>
+    <definedName name="A83793694K">Data1!$S$1:$S$10,Data1!$S$91:$S$256</definedName>
+    <definedName name="A83793694K_Data">Data1!$S$91:$S$256</definedName>
+    <definedName name="A83793694K_Latest">Data1!$S$256</definedName>
+    <definedName name="A83793838K">Data1!$O$1:$O$10,Data1!$O$91:$O$256</definedName>
+    <definedName name="A83793838K_Data">Data1!$O$91:$O$256</definedName>
+    <definedName name="A83793838K_Latest">Data1!$O$256</definedName>
+    <definedName name="A83794054F">Data1!$Q$1:$Q$10,Data1!$Q$91:$Q$256</definedName>
+    <definedName name="A83794054F_Data">Data1!$Q$91:$Q$256</definedName>
+    <definedName name="A83794054F_Latest">Data1!$Q$256</definedName>
+    <definedName name="A83794126F">Data1!$G$1:$G$10,Data1!$G$11:$G$256</definedName>
+    <definedName name="A83794126F_Data">Data1!$G$11:$G$256</definedName>
+    <definedName name="A83794126F_Latest">Data1!$G$256</definedName>
+    <definedName name="A83794270X">Data1!$C$1:$C$10,Data1!$C$91:$C$256</definedName>
+    <definedName name="A83794270X_Data">Data1!$C$91:$C$256</definedName>
+    <definedName name="A83794270X_Latest">Data1!$C$256</definedName>
+    <definedName name="A83794486K">Data1!$E$1:$E$10,Data1!$E$91:$E$256</definedName>
+    <definedName name="A83794486K_Data">Data1!$E$91:$E$256</definedName>
+    <definedName name="A83794486K_Latest">Data1!$E$256</definedName>
+    <definedName name="A83794558K">Data1!$AE$1:$AE$10,Data1!$AE$91:$AE$256</definedName>
+    <definedName name="A83794558K_Data">Data1!$AE$91:$AE$256</definedName>
+    <definedName name="A83794558K_Latest">Data1!$AE$256</definedName>
+    <definedName name="A83794702T">Data1!$AA$1:$AA$10,Data1!$AA$91:$AA$256</definedName>
+    <definedName name="A83794702T_Data">Data1!$AA$91:$AA$256</definedName>
+    <definedName name="A83794702T_Latest">Data1!$AA$256</definedName>
+    <definedName name="A83794918C">Data1!$AC$1:$AC$10,Data1!$AC$91:$AC$256</definedName>
+    <definedName name="A83794918C_Data">Data1!$AC$91:$AC$256</definedName>
+    <definedName name="A83794918C_Latest">Data1!$AC$256</definedName>
+    <definedName name="A83794990W">Data1!$T$1:$T$10,Data1!$T$107:$T$256</definedName>
+    <definedName name="A83794990W_Data">Data1!$T$107:$T$256</definedName>
+    <definedName name="A83794990W_Latest">Data1!$T$256</definedName>
+    <definedName name="A83795422T">Data1!$H$1:$H$10,Data1!$H$107:$H$256</definedName>
+    <definedName name="A83795422T_Data">Data1!$H$107:$H$256</definedName>
+    <definedName name="A83795422T_Latest">Data1!$H$256</definedName>
+    <definedName name="A83795854W">Data1!$AF$1:$AF$10,Data1!$AF$107:$AF$256</definedName>
+    <definedName name="A83795854W_Data">Data1!$AF$107:$AF$256</definedName>
+    <definedName name="A83795854W_Latest">Data1!$AF$256</definedName>
+    <definedName name="A83797582R">Data1!$U$1:$U$10,Data1!$U$63:$U$256</definedName>
+    <definedName name="A83797582R_Data">Data1!$U$63:$U$256</definedName>
+    <definedName name="A83797582R_Latest">Data1!$U$256</definedName>
+    <definedName name="A83798014K">Data1!$I$1:$I$10,Data1!$I$63:$I$256</definedName>
+    <definedName name="A83798014K_Data">Data1!$I$63:$I$256</definedName>
+    <definedName name="A83798014K_Latest">Data1!$I$256</definedName>
+    <definedName name="A83798446R">Data1!$AG$1:$AG$10,Data1!$AG$63:$AG$256</definedName>
+    <definedName name="A83798446R_Data">Data1!$AG$63:$AG$256</definedName>
+    <definedName name="A83798446R_Latest">Data1!$AG$256</definedName>
+    <definedName name="A83798950A">Data1!$X$1:$X$10,Data1!$X$107:$X$256</definedName>
+    <definedName name="A83798950A_Data">Data1!$X$107:$X$256</definedName>
+    <definedName name="A83798950A_Latest">Data1!$X$256</definedName>
+    <definedName name="A83799094R">Data1!$V$1:$V$10,Data1!$V$31:$V$256</definedName>
+    <definedName name="A83799094R_Data">Data1!$V$31:$V$256</definedName>
+    <definedName name="A83799094R_Latest">Data1!$V$256</definedName>
+    <definedName name="A83799382J">Data1!$L$1:$L$10,Data1!$L$91:$L$256</definedName>
+    <definedName name="A83799382J_Data">Data1!$L$91:$L$256</definedName>
+    <definedName name="A83799382J_Latest">Data1!$L$256</definedName>
+    <definedName name="A83799526J">Data1!$J$1:$J$10,Data1!$J$11:$J$256</definedName>
+    <definedName name="A83799526J_Data">Data1!$J$11:$J$256</definedName>
+    <definedName name="A83799526J_Latest">Data1!$J$256</definedName>
+    <definedName name="A83799814A">Data1!$AJ$1:$AJ$10,Data1!$AJ$107:$AJ$256</definedName>
+    <definedName name="A83799814A_Data">Data1!$AJ$107:$AJ$256</definedName>
+    <definedName name="A83799814A_Latest">Data1!$AJ$256</definedName>
+    <definedName name="A83799958L">Data1!$AH$1:$AH$10,Data1!$AH$31:$AH$256</definedName>
+    <definedName name="A83799958L_Data">Data1!$AH$31:$AH$256</definedName>
+    <definedName name="A83799958L_Latest">Data1!$AH$256</definedName>
+    <definedName name="A83801542J">Data1!$Y$1:$Y$10,Data1!$Y$91:$Y$256</definedName>
+    <definedName name="A83801542J_Data">Data1!$Y$91:$Y$256</definedName>
+    <definedName name="A83801542J_Latest">Data1!$Y$256</definedName>
+    <definedName name="A83801686V">Data1!$W$1:$W$10,Data1!$W$31:$W$256</definedName>
+    <definedName name="A83801686V_Data">Data1!$W$31:$W$256</definedName>
+    <definedName name="A83801686V_Latest">Data1!$W$256</definedName>
+    <definedName name="A83801974L">Data1!$M$1:$M$10,Data1!$M$11:$M$256</definedName>
+    <definedName name="A83801974L_Data">Data1!$M$11:$M$256</definedName>
+    <definedName name="A83801974L_Latest">Data1!$M$256</definedName>
+    <definedName name="A83802118R">Data1!$K$1:$K$10,Data1!$K$11:$K$256</definedName>
+    <definedName name="A83802118R_Data">Data1!$K$11:$K$256</definedName>
+    <definedName name="A83802118R_Latest">Data1!$K$256</definedName>
+    <definedName name="A83802406J">Data1!$AK$1:$AK$10,Data1!$AK$91:$AK$256</definedName>
+    <definedName name="A83802406J_Data">Data1!$AK$91:$AK$256</definedName>
+    <definedName name="A83802406J_Latest">Data1!$AK$256</definedName>
+    <definedName name="A83802550A">Data1!$AI$1:$AI$10,Data1!$AI$31:$AI$256</definedName>
+    <definedName name="A83802550A_Data">Data1!$AI$31:$AI$256</definedName>
+    <definedName name="A83802550A_Latest">Data1!$AI$256</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$256</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$256</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -27951,6 +27951,162 @@
       </text>
     </comment>
     <comment ref="AK255" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z256" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA256" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB256" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC256" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD256" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE256" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF256" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG256" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH256" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI256" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ256" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK256" authorId="0">
       <text>
         <r>
           <rPr>
@@ -28186,7 +28342,7 @@
     <t>Freq.</t>
   </si>
   <si>
-    <t>© Commonwealth of Australia  2021</t>
+    <t>© Commonwealth of Australia  2022</t>
   </si>
 </sst>
 </file>
@@ -28892,10 +29048,10 @@
         <v>29465</v>
       </c>
       <c r="G12" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H12" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>21</v>
@@ -28924,10 +29080,10 @@
         <v>29465</v>
       </c>
       <c r="G13" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H13" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>21</v>
@@ -28956,10 +29112,10 @@
         <v>30926</v>
       </c>
       <c r="G14" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H14" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>21</v>
@@ -28988,10 +29144,10 @@
         <v>29465</v>
       </c>
       <c r="G15" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H15" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>21</v>
@@ -29020,10 +29176,10 @@
         <v>30926</v>
       </c>
       <c r="G16" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H16" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>21</v>
@@ -29052,10 +29208,10 @@
         <v>22160</v>
       </c>
       <c r="G17" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H17" s="10">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>21</v>
@@ -29084,10 +29240,10 @@
         <v>30926</v>
       </c>
       <c r="G18" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H18" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>21</v>
@@ -29116,10 +29272,10 @@
         <v>26908</v>
       </c>
       <c r="G19" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H19" s="10">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>21</v>
@@ -29148,10 +29304,10 @@
         <v>22160</v>
       </c>
       <c r="G20" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H20" s="10">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>21</v>
@@ -29180,10 +29336,10 @@
         <v>22160</v>
       </c>
       <c r="G21" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H21" s="10">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>21</v>
@@ -29212,10 +29368,10 @@
         <v>29465</v>
       </c>
       <c r="G22" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H22" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>21</v>
@@ -29244,10 +29400,10 @@
         <v>22160</v>
       </c>
       <c r="G23" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H23" s="10">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>21</v>
@@ -29276,10 +29432,10 @@
         <v>29465</v>
       </c>
       <c r="G24" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H24" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>21</v>
@@ -29308,10 +29464,10 @@
         <v>29465</v>
       </c>
       <c r="G25" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H25" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>21</v>
@@ -29340,10 +29496,10 @@
         <v>30926</v>
       </c>
       <c r="G26" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H26" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>21</v>
@@ -29372,10 +29528,10 @@
         <v>29465</v>
       </c>
       <c r="G27" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H27" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>21</v>
@@ -29404,10 +29560,10 @@
         <v>30926</v>
       </c>
       <c r="G28" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H28" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>21</v>
@@ -29436,10 +29592,10 @@
         <v>29465</v>
       </c>
       <c r="G29" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H29" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>21</v>
@@ -29468,10 +29624,10 @@
         <v>30926</v>
       </c>
       <c r="G30" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H30" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>21</v>
@@ -29500,10 +29656,10 @@
         <v>26908</v>
       </c>
       <c r="G31" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H31" s="10">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>21</v>
@@ -29532,10 +29688,10 @@
         <v>23986</v>
       </c>
       <c r="G32" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H32" s="10">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>21</v>
@@ -29564,10 +29720,10 @@
         <v>23986</v>
       </c>
       <c r="G33" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H33" s="10">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>21</v>
@@ -29596,10 +29752,10 @@
         <v>30926</v>
       </c>
       <c r="G34" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H34" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>21</v>
@@ -29628,10 +29784,10 @@
         <v>29465</v>
       </c>
       <c r="G35" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H35" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>21</v>
@@ -29660,10 +29816,10 @@
         <v>29465</v>
       </c>
       <c r="G36" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H36" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>21</v>
@@ -29692,10 +29848,10 @@
         <v>29465</v>
       </c>
       <c r="G37" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H37" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>21</v>
@@ -29724,10 +29880,10 @@
         <v>30926</v>
       </c>
       <c r="G38" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H38" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>21</v>
@@ -29756,10 +29912,10 @@
         <v>29465</v>
       </c>
       <c r="G39" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H39" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>21</v>
@@ -29788,10 +29944,10 @@
         <v>30926</v>
       </c>
       <c r="G40" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H40" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>21</v>
@@ -29820,10 +29976,10 @@
         <v>29465</v>
       </c>
       <c r="G41" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H41" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>21</v>
@@ -29852,10 +30008,10 @@
         <v>30926</v>
       </c>
       <c r="G42" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H42" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>21</v>
@@ -29884,10 +30040,10 @@
         <v>26908</v>
       </c>
       <c r="G43" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H43" s="10">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>21</v>
@@ -29916,10 +30072,10 @@
         <v>23986</v>
       </c>
       <c r="G44" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H44" s="10">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>21</v>
@@ -29948,10 +30104,10 @@
         <v>23986</v>
       </c>
       <c r="G45" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H45" s="10">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>21</v>
@@ -29980,10 +30136,10 @@
         <v>30926</v>
       </c>
       <c r="G46" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H46" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>21</v>
@@ -30012,10 +30168,10 @@
         <v>29465</v>
       </c>
       <c r="G47" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H47" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>21</v>
@@ -30086,7 +30242,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK255"/>
+  <dimension ref="A1:AK256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -30893,112 +31049,112 @@
         <v>18</v>
       </c>
       <c r="B8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="C8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="D8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="E8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="F8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="G8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="I8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="J8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="K8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="L8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="M8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="N8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="O8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="P8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="Q8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="R8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="S8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="T8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="U8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="V8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="W8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="X8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="Y8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="Z8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="AA8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="AB8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="AC8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="AD8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="AE8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="AF8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="AG8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="AH8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="AI8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="AK8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
@@ -31006,112 +31162,112 @@
         <v>19</v>
       </c>
       <c r="B9" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C9" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E9" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G9" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I9" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J9" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K9" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L9" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M9" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N9" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O9" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q9" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S9" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U9" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V9" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="W9" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="X9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y9" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z9" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA9" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AC9" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AD9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AE9" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG9" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AH9" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AI9" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AJ9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK9" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
@@ -47464,76 +47620,76 @@
         <v>44440</v>
       </c>
       <c r="B255" s="8">
-        <v>9731048</v>
+        <v>9672362</v>
       </c>
       <c r="C255" s="8">
-        <v>9827234</v>
+        <v>9768548</v>
       </c>
       <c r="D255" s="8">
-        <v>6869873</v>
+        <v>6124030</v>
       </c>
       <c r="E255" s="8">
-        <v>6927002</v>
+        <v>6181158</v>
       </c>
       <c r="F255" s="8">
-        <v>16600921</v>
+        <v>15796392</v>
       </c>
       <c r="G255" s="8">
-        <v>16754235</v>
+        <v>15949706</v>
       </c>
       <c r="H255" s="8">
-        <v>2825647</v>
+        <v>2802247</v>
       </c>
       <c r="I255" s="8">
-        <v>2880905</v>
+        <v>2854645</v>
       </c>
       <c r="J255" s="8">
-        <v>7308922</v>
+        <v>7057975</v>
       </c>
       <c r="K255" s="8">
-        <v>9228575</v>
+        <v>8923718</v>
       </c>
       <c r="L255" s="8">
-        <v>26735490</v>
+        <v>25656615</v>
       </c>
       <c r="M255" s="8">
-        <v>28863715</v>
+        <v>27728069</v>
       </c>
       <c r="N255" s="8">
-        <v>9465448</v>
+        <v>9408363</v>
       </c>
       <c r="O255" s="8">
-        <v>9558822</v>
+        <v>9501739</v>
       </c>
       <c r="P255" s="8">
-        <v>6581536</v>
+        <v>5866997</v>
       </c>
       <c r="Q255" s="8">
-        <v>6660771</v>
+        <v>5943593</v>
       </c>
       <c r="R255" s="8">
-        <v>16046984</v>
+        <v>15275360</v>
       </c>
       <c r="S255" s="8">
-        <v>16219593</v>
+        <v>15445332</v>
       </c>
       <c r="T255" s="8">
-        <v>2925691</v>
+        <v>2901462</v>
       </c>
       <c r="U255" s="8">
-        <v>2981574</v>
+        <v>2954397</v>
       </c>
       <c r="V255" s="8">
-        <v>7419946</v>
+        <v>7165188</v>
       </c>
       <c r="W255" s="8">
-        <v>9497585</v>
+        <v>9183841</v>
       </c>
       <c r="X255" s="8">
-        <v>26392621</v>
+        <v>25342011</v>
       </c>
       <c r="Y255" s="8">
-        <v>28698752</v>
+        <v>27583570</v>
       </c>
       <c r="Z255" s="8"/>
       <c r="AA255" s="8"/>
@@ -47547,6 +47703,95 @@
       <c r="AI255" s="8"/>
       <c r="AJ255" s="8"/>
       <c r="AK255" s="8"/>
+    </row>
+    <row r="256" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A256" s="9">
+        <v>44531</v>
+      </c>
+      <c r="B256" s="8">
+        <v>10322633</v>
+      </c>
+      <c r="C256" s="8">
+        <v>10391698</v>
+      </c>
+      <c r="D256" s="8">
+        <v>5705888</v>
+      </c>
+      <c r="E256" s="8">
+        <v>5860453</v>
+      </c>
+      <c r="F256" s="8">
+        <v>16028521</v>
+      </c>
+      <c r="G256" s="8">
+        <v>16252151</v>
+      </c>
+      <c r="H256" s="8">
+        <v>2941136</v>
+      </c>
+      <c r="I256" s="8">
+        <v>2976553</v>
+      </c>
+      <c r="J256" s="8">
+        <v>8099106</v>
+      </c>
+      <c r="K256" s="8">
+        <v>11542116</v>
+      </c>
+      <c r="L256" s="8">
+        <v>27068764</v>
+      </c>
+      <c r="M256" s="8">
+        <v>30770820</v>
+      </c>
+      <c r="N256" s="8">
+        <v>9434127</v>
+      </c>
+      <c r="O256" s="8">
+        <v>9493516</v>
+      </c>
+      <c r="P256" s="8">
+        <v>5082608</v>
+      </c>
+      <c r="Q256" s="8">
+        <v>5191525</v>
+      </c>
+      <c r="R256" s="8">
+        <v>14516735</v>
+      </c>
+      <c r="S256" s="8">
+        <v>14685041</v>
+      </c>
+      <c r="T256" s="8">
+        <v>2548203</v>
+      </c>
+      <c r="U256" s="8">
+        <v>2580856</v>
+      </c>
+      <c r="V256" s="8">
+        <v>6986445</v>
+      </c>
+      <c r="W256" s="8">
+        <v>10403458</v>
+      </c>
+      <c r="X256" s="8">
+        <v>24051383</v>
+      </c>
+      <c r="Y256" s="8">
+        <v>27669355</v>
+      </c>
+      <c r="Z256" s="8"/>
+      <c r="AA256" s="8"/>
+      <c r="AB256" s="8"/>
+      <c r="AC256" s="8"/>
+      <c r="AD256" s="8"/>
+      <c r="AE256" s="8"/>
+      <c r="AF256" s="8"/>
+      <c r="AG256" s="8"/>
+      <c r="AH256" s="8"/>
+      <c r="AI256" s="8"/>
+      <c r="AJ256" s="8"/>
+      <c r="AK256" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
